--- a/数据整理/stocks/A股/创业板/300217-东方电热.xlsx
+++ b/数据整理/stocks/A股/创业板/300217-东方电热.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,673 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1515</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6365</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3619</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014455</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银成长优选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300217-东方电热.xlsx
+++ b/数据整理/stocks/A股/创业板/300217-东方电热.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,129 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009402</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银施罗德启明混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>51.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.62</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4019</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.76</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009874</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>九泰久睿量化股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1251</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1248,64 +1184,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.76</v>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4019</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.53</v>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300217-东方电热.xlsx
+++ b/数据整理/stocks/A股/创业板/300217-东方电热.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>5.76</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.53</v>
       </c>
     </row>
@@ -515,6 +532,1800 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519704</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1584</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009402</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010936</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1759</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013883</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德启明混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银景福回报混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银成长优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014963</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010937</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德均衡成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>45.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011482</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013054</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159730</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时国证龙头家电ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013053</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011483</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>34.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014455</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银成长优选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015807</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014845</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015089</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银景福回报混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>016480</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>016520</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1178,7 +2989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300217-东方电热.xlsx
+++ b/数据整理/stocks/A股/创业板/300217-东方电热.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>6.65</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>5.76</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.53</v>
       </c>
     </row>
@@ -532,6 +549,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012846</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒越蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银成长优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>33.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013054</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159730</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时国证龙头家电ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013383</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒生前海高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014455</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银成长优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013053</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013384</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒生前海高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2325,7 +3272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2989,7 +3936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
